--- a/pred_ohlcv/54_21/2020-01-23 ZEC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 ZEC ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>-328.0660999999999</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-328.0660999999999</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-328.0660999999999</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-271.8008</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-247.8008</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-177.323</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-176.9892</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-180.1764314</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-201.2088314</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-201.0387314</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-201.0387314</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-368.5802313999999</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-342.6998313999999</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-342.6998313999999</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-342.6998313999999</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-342.6998313999999</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-343.1400313999999</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-342.1400313999999</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-290.9982314</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-305.9982314</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-265.0703313999999</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-174.4913313999999</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-173.3760313999999</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-173.3760313999999</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-173.3760313999999</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-176.7760313999999</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-146.7702313999999</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-146.3699314</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-146.3699314</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-145.5159313999999</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-127.8426313999999</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-334.4357313999999</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-327.8871313999999</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-320.0041313999998</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-297.7024313999999</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-298.2075313999999</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-389.0727313999998</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-389.6308313999999</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-402.0636313999998</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-406.8302313999998</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-407.0732313999998</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-407.0732313999998</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-390.8420313999998</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-403.9269313999998</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-404.4179313999998</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-382.6360313999998</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-382.6360313999998</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-387.0480806299998</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-386.7361806299999</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-461.5579806299999</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-461.5579806299999</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-23 ZEC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 ZEC ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>-328.0660999999999</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-328.0660999999999</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-328.0660999999999</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-271.8008</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-247.8008</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-177.323</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-176.9892</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-180.1764314</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-201.0387314</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-201.6945314</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-201.6945314</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-342.6998313999999</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-342.6998313999999</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-342.6998313999999</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-343.1400313999999</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-342.1400313999999</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-290.9982314</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-305.9982314</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-304.6806313999999</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-304.6806313999999</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-265.0703313999999</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-146.3699314</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-145.5159313999999</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-327.8871313999999</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-327.6041313999999</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-403.9269313999998</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-384.5895806299998</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-386.7361806299999</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-398.5579806299999</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-398.5579806299999</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-461.5579806299999</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-461.5579806299999</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
